--- a/data/spring-cloud-shop/shop-job-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-job-api_structure.xlsx
@@ -633,69 +633,69 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>jobGroupId</t>
+  </si>
+  <si>
+    <t>triggerTime</t>
+  </si>
+  <si>
+    <t>handleMsg</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>triggerCode</t>
+  </si>
+  <si>
+    <t>executorServiceName</t>
+  </si>
+  <si>
     <t>executorServiceMethod</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>jobId</t>
+  </si>
+  <si>
+    <t>executorParam</t>
+  </si>
+  <si>
+    <t>handleTime</t>
+  </si>
+  <si>
+    <t>handleCode</t>
+  </si>
+  <si>
+    <t>alarmStatus</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>triggerMsg</t>
   </si>
   <si>
-    <t>handleTime</t>
-  </si>
-  <si>
-    <t>handleMsg</t>
-  </si>
-  <si>
-    <t>jobGroupId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>executorParam</t>
-  </si>
-  <si>
-    <t>jobId</t>
-  </si>
-  <si>
-    <t>triggerTime</t>
-  </si>
-  <si>
-    <t>handleCode</t>
-  </si>
-  <si>
-    <t>alarmStatus</t>
-  </si>
-  <si>
-    <t>triggerCode</t>
-  </si>
-  <si>
-    <t>executorServiceName</t>
-  </si>
-  <si>
     <t>scheduler</t>
   </si>
   <si>
     <t>org.quartz.Scheduler</t>
   </si>
   <si>
+    <t>jobGroupMapper</t>
+  </si>
+  <si>
     <t>jobInfoMapper</t>
   </si>
   <si>
-    <t>jobGroupMapper</t>
+    <t>params</t>
   </si>
   <si>
     <t>jobName</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>jobEnums</t>
   </si>
   <si>
@@ -708,31 +708,31 @@
     <t>HANDLER</t>
   </si>
   <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>serviceName</t>
+  </si>
+  <si>
+    <t>jobStatus</t>
+  </si>
+  <si>
+    <t>serviceMethod</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>updateUser</t>
   </si>
   <si>
-    <t>jobStatus</t>
-  </si>
-  <si>
-    <t>serviceName</t>
-  </si>
-  <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>serviceMethod</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>createTime</t>
+    <t>groupName</t>
   </si>
   <si>
     <t>sequence</t>
-  </si>
-  <si>
-    <t>groupName</t>
   </si>
   <si>
     <t>jobService</t>
@@ -10234,7 +10234,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -10248,7 +10248,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>205</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -10256,7 +10256,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>21</v>
@@ -10270,13 +10270,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -10290,7 +10290,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -10304,7 +10304,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -10318,7 +10318,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -10332,7 +10332,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -10346,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -10402,7 +10402,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -10424,13 +10424,13 @@
         <v>62</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -10438,13 +10438,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -10458,7 +10458,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -10472,7 +10472,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -10480,13 +10480,13 @@
         <v>85</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -10494,13 +10494,13 @@
         <v>85</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -10508,13 +10508,13 @@
         <v>85</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>202</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -10522,13 +10522,13 @@
         <v>85</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -10536,13 +10536,13 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
@@ -10550,7 +10550,7 @@
         <v>85</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>21</v>
@@ -10578,13 +10578,13 @@
         <v>93</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -10592,13 +10592,13 @@
         <v>93</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -10606,13 +10606,13 @@
         <v>93</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -10634,13 +10634,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -10648,13 +10648,13 @@
         <v>93</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>15</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
@@ -10662,13 +10662,13 @@
         <v>93</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>205</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -10676,13 +10676,13 @@
         <v>93</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -10718,13 +10718,13 @@
         <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -10732,13 +10732,13 @@
         <v>84</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -10746,7 +10746,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>21</v>
@@ -10760,7 +10760,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>21</v>
@@ -10774,7 +10774,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>21</v>
@@ -10788,13 +10788,13 @@
         <v>84</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -10802,13 +10802,13 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -10816,13 +10816,13 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>15</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46">
@@ -10830,13 +10830,13 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>205</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -10844,13 +10844,13 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -10858,13 +10858,13 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -10872,13 +10872,13 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -10886,7 +10886,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>21</v>
@@ -10900,13 +10900,13 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -10920,7 +10920,7 @@
         <v>21</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -10928,13 +10928,13 @@
         <v>137</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54">
@@ -10942,13 +10942,13 @@
         <v>137</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>205</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -10962,7 +10962,7 @@
         <v>21</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -11054,13 +11054,13 @@
         <v>99</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -11068,7 +11068,7 @@
         <v>99</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>21</v>
@@ -11082,13 +11082,13 @@
         <v>99</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -11110,13 +11110,13 @@
         <v>99</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -11124,7 +11124,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>21</v>
@@ -11138,13 +11138,13 @@
         <v>99</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
